--- a/R/codebooks/QC_all_components_OUTCOME.xlsx
+++ b/R/codebooks/QC_all_components_OUTCOME.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26815"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Seafile\Seafile\Mia Libreria\CVM\EHR_studies\Readiness\script_design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="106" documentId="11_C82228754D692EA8BB4EDB567209186724C134F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{201CDDB9-1FF7-4CFC-B466-010CBDFFEC3D}"/>
+  <xr:revisionPtr revIDLastSave="107" documentId="11_C82228754D692EA8BB4EDB567209186724C134F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84D1BE9A-83C1-4DB3-B9D1-6A9BC0F2178F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12600" windowHeight="6900" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12600" windowHeight="6900" firstSheet="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
     <t>Content of the dataset</t>
   </si>
   <si>
-    <t>Occurrence of components of the outcome OUTCOME during 2019 (and. to be dropped, during one year of lookback), per  meaning, to all persons in the study population at 1/1/2019 or entering during 2019</t>
+    <t>Occurrence of components of the outcome OUTCOME during 2019 (and to be dropped, during one year of lookback), per  meaning, to all persons in the study population at 1/1/2019 or entering during 2019</t>
   </si>
   <si>
     <t>Unit of observation</t>
@@ -421,7 +421,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -735,7 +735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1032,7 +1032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
@@ -1616,6 +1616,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Comments xmlns="8029070a-695f-410c-a424-24d0683063af" xsi:nil="true"/>
@@ -1627,18 +1636,9 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100051A4D12AC31714A976EFB59A015589D" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6dac44d48b4406d5c320fe911a853389">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8029070a-695f-410c-a424-24d0683063af" xmlns:ns3="797b3a1e-a17b-4ca2-8e72-b47fcb862c81" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="183e839aabd2ef2c305af4a754f6d8de" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100051A4D12AC31714A976EFB59A015589D" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8718e4a61e08f80278e3f0325a3727eb">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8029070a-695f-410c-a424-24d0683063af" xmlns:ns3="797b3a1e-a17b-4ca2-8e72-b47fcb862c81" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8f65cc27c03321c69be19df794a0d9ee" ns2:_="" ns3:_="">
     <xsd:import namespace="8029070a-695f-410c-a424-24d0683063af"/>
     <xsd:import namespace="797b3a1e-a17b-4ca2-8e72-b47fcb862c81"/>
     <xsd:element name="properties">
@@ -1662,6 +1662,7 @@
                 <xsd:element ref="ns2:Comments" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1739,6 +1740,11 @@
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="797b3a1e-a17b-4ca2-8e72-b47fcb862c81" elementFormDefault="qualified">
@@ -1882,13 +1888,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3594D7-89C9-4FB7-87F1-388B97141296}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE8A1FD8-B49B-4DD5-B035-18D91695717A}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3594D7-89C9-4FB7-87F1-388B97141296}"/>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{095A6D15-E08A-4C5B-ADE1-13F19FA04D79}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BDF5400-7C08-4BDA-93D6-EA49C5E00A0E}"/>
 </file>